--- a/Data/EC/NIT-9007863407.xlsx
+++ b/Data/EC/NIT-9007863407.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A43AE5-721A-4A77-85F0-E1D890198485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CCC542-C7BB-4250-8924-A32BF669264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EABA0ED9-1264-42F5-846B-2C8A831989D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F41D26D4-F620-4866-96BF-5C2B9C28CD01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,178 +71,178 @@
     <t>CECILIA MARGARITA PINO PUELLO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -341,7 +341,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -354,9 +356,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -556,23 +556,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,10 +600,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA3ADB4-4E3C-C34E-2B5E-0EA663DC9FB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969807E3-1E9F-D36F-0B43-3748458081E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5367AE7-9763-447A-8BED-74AE937171F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354C0F56-8A9B-443C-86F1-64ADE2507CAB}">
   <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27083</v>
+        <v>25760</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1208,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1231,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1254,7 +1254,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1277,7 +1277,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1300,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1323,7 +1323,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1346,7 +1346,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1392,7 +1392,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1415,7 +1415,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1438,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1461,7 +1461,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1484,7 +1484,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1507,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1530,7 +1530,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1553,7 +1553,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1576,7 +1576,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1599,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1622,7 +1622,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1645,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1668,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1691,7 +1691,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1714,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1737,7 +1737,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1760,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25760</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1921,7 +1921,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1944,7 +1944,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1967,7 +1967,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1990,7 +1990,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2013,7 +2013,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2036,7 +2036,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2059,7 +2059,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2082,7 +2082,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2105,7 +2105,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2128,7 +2128,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2151,7 +2151,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2174,7 +2174,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2197,7 +2197,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2220,7 +2220,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2243,7 +2243,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2266,7 +2266,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2289,7 +2289,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2312,7 +2312,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2335,7 +2335,7 @@
         <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2358,7 +2358,7 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2381,7 +2381,7 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2404,7 +2404,7 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2427,7 +2427,7 @@
         <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2450,7 +2450,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2473,7 +2473,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>25760</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2496,7 +2496,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="24">
-        <v>25760</v>
+        <v>27083</v>
       </c>
       <c r="G73" s="24">
         <v>781242</v>
